--- a/docs/0.1.0/StructureDefinition-communication-reengagement.xlsx
+++ b/docs/0.1.0/StructureDefinition-communication-reengagement.xlsx
@@ -206,7 +206,7 @@
     <t>reengagementValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/reengagement-value}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/reengagement-value}
 </t>
   </si>
   <si>
@@ -222,7 +222,7 @@
     <t>reengagementDisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/reengagement-display}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/reengagement-display}
 </t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/communication-reengagement</t>
+    <t>http://alvearie.io/fhir/StructureDefinition/communication-reengagement</t>
   </si>
   <si>
     <t>Extension.value[x]</t>

--- a/docs/0.1.0/StructureDefinition-communication-reengagement.xlsx
+++ b/docs/0.1.0/StructureDefinition-communication-reengagement.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
   <si>
     <t>Path</t>
   </si>
@@ -206,23 +206,20 @@
     <t>reengagementValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/reengagement-value}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/reengagement-value}
 </t>
   </si>
   <si>
     <t>Communication reengagement sequence value</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>reengagementDisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/reengagement-display}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/reengagement-display}
 </t>
   </si>
   <si>
@@ -245,7 +242,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://alvearie.io/fhir/StructureDefinition/communication-reengagement</t>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -903,7 +900,7 @@
         <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -969,7 +966,7 @@
         <v>42</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -977,7 +974,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -999,13 +996,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1071,12 +1068,12 @@
         <v>42</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1099,16 +1096,16 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1116,7 +1113,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s" s="2">
         <v>37</v>
@@ -1158,7 +1155,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>44</v>
@@ -1173,12 +1170,12 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1201,13 +1198,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1258,7 +1255,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1270,10 +1267,10 @@
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/docs/0.1.0/StructureDefinition-communication-reengagement.xlsx
+++ b/docs/0.1.0/StructureDefinition-communication-reengagement.xlsx
@@ -417,42 +417,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.33984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="48.6015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="48.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/0.1.0/StructureDefinition-communication-reengagement.xlsx
+++ b/docs/0.1.0/StructureDefinition-communication-reengagement.xlsx
@@ -417,42 +417,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.34375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="48.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
